--- a/SEML/data/top100.xlsx
+++ b/SEML/data/top100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Interaction SE with ML\SEML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Interaction SE with ML\SEML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="525">
   <si>
     <t>Id</t>
   </si>
@@ -1236,9 +1236,6 @@
     <t>SE cycle</t>
   </si>
   <si>
-    <t>Testing/Security</t>
-  </si>
-  <si>
     <t xml:space="preserve">SARD, NVD </t>
   </si>
   <si>
@@ -1314,18 +1311,12 @@
     <t>Collected</t>
   </si>
   <si>
-    <t>Java/Android</t>
-  </si>
-  <si>
     <t>find code based on natural language queries</t>
   </si>
   <si>
     <t>valid data structures detection</t>
   </si>
   <si>
-    <t>Maintanance</t>
-  </si>
-  <si>
     <t>Find classes that needs refactoring/ feature envy detection</t>
   </si>
   <si>
@@ -1335,9 +1326,6 @@
     <t>ML</t>
   </si>
   <si>
-    <t>Maintanence</t>
-  </si>
-  <si>
     <t>predict web service response time</t>
   </si>
   <si>
@@ -1527,15 +1515,9 @@
     <t>11 target library classes: JDK, Daikon, Xalan</t>
   </si>
   <si>
-    <t>MLP, AE</t>
-  </si>
-  <si>
     <t xml:space="preserve">classify test logs into root cause categories </t>
   </si>
   <si>
-    <t>Testing/Repair</t>
-  </si>
-  <si>
     <t>GML</t>
   </si>
   <si>
@@ -1545,30 +1527,18 @@
     <t>theme</t>
   </si>
   <si>
-    <t>specification mining</t>
-  </si>
-  <si>
     <t>Code Query</t>
   </si>
   <si>
     <t>Auto Repair</t>
   </si>
   <si>
-    <t>NN Testing</t>
-  </si>
-  <si>
     <t>Code Generation</t>
   </si>
   <si>
-    <t>NN Repair</t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
-    <t>Cloud</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -1615,6 +1585,15 @@
   </si>
   <si>
     <t>detail corpus</t>
+  </si>
+  <si>
+    <t>FNN, AE</t>
+  </si>
+  <si>
+    <t>Java, Android</t>
+  </si>
+  <si>
+    <t>NN Repair Testing</t>
   </si>
 </sst>
 </file>
@@ -2473,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2462,7 @@
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="78.85546875" customWidth="1"/>
+    <col min="5" max="5" width="93.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="36.140625" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
@@ -2518,25 +2497,25 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="J1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>404</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2565,25 +2544,25 @@
         <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2612,25 +2591,25 @@
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2659,25 +2638,25 @@
         <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2706,25 +2685,25 @@
         <v>7</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2753,25 +2732,25 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2800,25 +2779,25 @@
         <v>7</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2847,25 +2826,25 @@
         <v>7</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>431</v>
+        <v>523</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2894,25 +2873,25 @@
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2941,25 +2920,25 @@
         <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>504</v>
+        <v>412</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2988,25 +2967,25 @@
         <v>6</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="O11" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3035,25 +3014,25 @@
         <v>6</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3082,25 +3061,25 @@
         <v>6</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3129,25 +3108,25 @@
         <v>6</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3176,25 +3155,25 @@
         <v>6</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3223,25 +3202,25 @@
         <v>5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -3270,25 +3249,25 @@
         <v>5</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3317,25 +3296,25 @@
         <v>5</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3364,25 +3343,25 @@
         <v>5</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3411,25 +3390,25 @@
         <v>5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -3458,25 +3437,25 @@
         <v>5</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3505,25 +3484,25 @@
         <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="N22" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -3552,25 +3531,25 @@
         <v>5</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3599,25 +3578,25 @@
         <v>5</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -3646,25 +3625,25 @@
         <v>5</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -3693,25 +3672,25 @@
         <v>5</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3740,25 +3719,25 @@
         <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>516</v>
-      </c>
       <c r="N27" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -3787,25 +3766,25 @@
         <v>5</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -3834,25 +3813,25 @@
         <v>5</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -3881,25 +3860,25 @@
         <v>5</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -3928,25 +3907,25 @@
         <v>5</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L31" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="N31" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3975,25 +3954,25 @@
         <v>5</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -4022,25 +4001,25 @@
         <v>5</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -4069,25 +4048,25 @@
         <v>5</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -4116,25 +4095,25 @@
         <v>4</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -4163,25 +4142,25 @@
         <v>4</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -4210,25 +4189,25 @@
         <v>4</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -4257,25 +4236,25 @@
         <v>4</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">

--- a/SEML/data/top100.xlsx
+++ b/SEML/data/top100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Interaction SE with ML\SEML\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Projects\Interaction SE with ML\SEML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="top100" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="579">
   <si>
     <t>Id</t>
   </si>
@@ -1594,6 +1594,168 @@
   </si>
   <si>
     <t>NN Repair Testing</t>
+  </si>
+  <si>
+    <t>Collected from Google Jam, AtCoder, CoderByte competition</t>
+  </si>
+  <si>
+    <t>Java, C#, Python</t>
+  </si>
+  <si>
+    <t>cross language clone detection</t>
+  </si>
+  <si>
+    <t>ML Custom</t>
+  </si>
+  <si>
+    <t>Siamese Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representation </t>
+  </si>
+  <si>
+    <t>Interesting Ideas</t>
+  </si>
+  <si>
+    <t>word2vec for documentaion, 9 features for code clone</t>
+  </si>
+  <si>
+    <t>use api documentation to measure semantic similarity</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>mining developers opinions regarding software libraries - sentiment analysis</t>
+  </si>
+  <si>
+    <t>Collected from SO, Mobile app reviws community, Jira issues comments community</t>
+  </si>
+  <si>
+    <t>TBCNN, CGNN</t>
+  </si>
+  <si>
+    <t>NN Interpretable</t>
+  </si>
+  <si>
+    <t>1023 unique Java programs crawled from GitHub for 10 distinctsorting algorithm</t>
+  </si>
+  <si>
+    <t>Validate the use of attention layers as interprapility to which code statement contirbuted most to a neurl network output.</t>
+  </si>
+  <si>
+    <t>Abstract syntax Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refernce to code representation / predict algo. from code </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>reference to code representation/ different se tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We start by mining a large set of (∼787k) bug-fixing commitsfrom GitHub. </t>
+  </si>
+  <si>
+    <t>auto repair java code using Neural Machine Translation</t>
+  </si>
+  <si>
+    <t>RNN, LSTM,GRU</t>
+  </si>
+  <si>
+    <t>Abstracted Token Sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We selected these six systems (programs) because of their size, havebeen actively developed over the past 10 years and extensivelyanalyzed by the competitive tools considered in this work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aid interactive refactoring using Genetic algorithem (better refactoring) and Clustering (user dirven selection) </t>
+  </si>
+  <si>
+    <t>using Quality Model forObject-Oriented Design (QMOOD) to meausre code quality</t>
+  </si>
+  <si>
+    <t>We  mine  three  large  Gerrit  [17]  code  review  repositories,namely Android [14], Google Source [15], and Ovirt [16]. Intotal, these repositories host code reviews related to 339 sub-projects</t>
+  </si>
+  <si>
+    <t>Auto Repair / Code Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Train an NMT model on pre-PR/post-PR method pairs to perform code change </t>
+  </si>
+  <si>
+    <t>GumTreeDiff , refernce code change taxonemy</t>
+  </si>
+  <si>
+    <t>NN Security</t>
+  </si>
+  <si>
+    <t>Detect adverserial examples to NNs by creating a set of NN model mutants and computing the ratio of changed labels</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>model mutations operators</t>
+  </si>
+  <si>
+    <t>FNN with word context as input</t>
+  </si>
+  <si>
+    <t>labels from L-PDS</t>
+  </si>
+  <si>
+    <t>the paper itself</t>
+  </si>
+  <si>
+    <t>Develop a function embedding from labeled push down system (interprocedural control flow) for finding functions synonyms with applications in error specifications</t>
+  </si>
+  <si>
+    <t>Func2vecis evaluated against a runnable Linux kernel with allfile systems and PCI sound drivers included, roughly 2 million LOC.</t>
+  </si>
+  <si>
+    <t>collected 2M commits from the most starred 1K Java projects in GitHub… filtered to 32k</t>
+  </si>
+  <si>
+    <t>Automitically generate commit messages from git diff documents.</t>
+  </si>
+  <si>
+    <t>Diff Token Sequence</t>
+  </si>
+  <si>
+    <t>test simple apporahces first. Estimate diff similarity in corpus - &gt; Can be generalized to diffent tasks</t>
+  </si>
+  <si>
+    <t>NN Testing</t>
+  </si>
+  <si>
+    <t>input wheather tranformation using GANS</t>
+  </si>
+  <si>
+    <t>Test Autnomouse Cars Models by GAN based weather transformations (snow, rain) and validates input by comparing it to training and testing inputs</t>
+  </si>
+  <si>
+    <t>Train a NN model to predict weather an intent links to a filter in Android Intent Component communication(ICC)</t>
+  </si>
+  <si>
+    <t>LSTM, RNN, CNN, MLP</t>
+  </si>
+  <si>
+    <t>type directed encoders - link inference NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMO - primo[33] corpus, consisting of 10,500 An-droid applications from Google Play. </t>
+  </si>
+  <si>
+    <t>reRead!</t>
+  </si>
+  <si>
+    <t>Formalize Test Requirnments for Neural Networks and apply concolic testing</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1930,6 +2092,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -2065,10 +2233,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2120,14 +2288,15 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="42" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2450,10 +2619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="D39" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2468,57 +2637,73 @@
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.28515625" customWidth="1"/>
     <col min="11" max="11" width="21" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="23.140625" customWidth="1"/>
     <col min="14" max="14" width="71.42578125" customWidth="1"/>
     <col min="15" max="15" width="37" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="50.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>473</v>
       </c>
@@ -2564,8 +2749,12 @@
       <c r="O2" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1042</v>
       </c>
@@ -2611,8 +2800,12 @@
       <c r="O3" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>712</v>
       </c>
@@ -2658,8 +2851,12 @@
       <c r="O4" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>286</v>
       </c>
@@ -2705,8 +2902,12 @@
       <c r="O5" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>287</v>
       </c>
@@ -2752,8 +2953,12 @@
       <c r="O6" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1495</v>
       </c>
@@ -2799,8 +3004,12 @@
       <c r="O7" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>826</v>
       </c>
@@ -2846,8 +3055,12 @@
       <c r="O8" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1399</v>
       </c>
@@ -2893,8 +3106,12 @@
       <c r="O9" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>822</v>
       </c>
@@ -2940,8 +3157,12 @@
       <c r="O10" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>462</v>
       </c>
@@ -2987,8 +3208,12 @@
       <c r="O11" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1336</v>
       </c>
@@ -3034,8 +3259,12 @@
       <c r="O12" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>750</v>
       </c>
@@ -3081,8 +3310,12 @@
       <c r="O13" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>315</v>
       </c>
@@ -3128,8 +3361,12 @@
       <c r="O14" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1196</v>
       </c>
@@ -3175,8 +3412,12 @@
       <c r="O15" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1012</v>
       </c>
@@ -3222,8 +3463,12 @@
       <c r="O16" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1019</v>
       </c>
@@ -3269,8 +3514,12 @@
       <c r="O17" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1270</v>
       </c>
@@ -3316,8 +3565,12 @@
       <c r="O18" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1043</v>
       </c>
@@ -3363,8 +3616,12 @@
       <c r="O19" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1149</v>
       </c>
@@ -3410,8 +3667,12 @@
       <c r="O20" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>821</v>
       </c>
@@ -3457,8 +3718,12 @@
       <c r="O21" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1380</v>
       </c>
@@ -3504,8 +3769,12 @@
       <c r="O22" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1177</v>
       </c>
@@ -3551,8 +3820,12 @@
       <c r="O23" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>148</v>
       </c>
@@ -3598,8 +3871,12 @@
       <c r="O24" s="2" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1017</v>
       </c>
@@ -3645,8 +3922,12 @@
       <c r="O25" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -3692,8 +3973,12 @@
       <c r="O26" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1213</v>
       </c>
@@ -3739,8 +4024,12 @@
       <c r="O27" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>559</v>
       </c>
@@ -3786,8 +4075,12 @@
       <c r="O28" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>448</v>
       </c>
@@ -3833,8 +4126,12 @@
       <c r="O29" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>310</v>
       </c>
@@ -3880,8 +4177,12 @@
       <c r="O30" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>413</v>
       </c>
@@ -3927,8 +4228,12 @@
       <c r="O31" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>455</v>
       </c>
@@ -3974,8 +4279,12 @@
       <c r="O32" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>628</v>
       </c>
@@ -4021,8 +4330,12 @@
       <c r="O33" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>631</v>
       </c>
@@ -4068,8 +4381,12 @@
       <c r="O34" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>288</v>
       </c>
@@ -4115,8 +4432,12 @@
       <c r="O35" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>278</v>
       </c>
@@ -4162,8 +4483,12 @@
       <c r="O36" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>76</v>
       </c>
@@ -4209,8 +4534,12 @@
       <c r="O37" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1157</v>
       </c>
@@ -4256,1097 +4585,1495 @@
       <c r="O38" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>1205</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <v>2019</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="2">
         <v>4</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="I39" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>80</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>2018</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="2">
         <v>4</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="I40" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>1120</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>2019</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="2">
         <v>4</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="I41" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>1085</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <v>2018</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="2">
         <v>4</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="I42" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>1049</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="2">
         <v>2018</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="2">
         <v>4</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="I43" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>223</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>2019</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="2">
         <v>4</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="I44" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>328</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>2019</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="2">
         <v>4</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="I45" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>652</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>2018</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="2">
         <v>4</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="I46" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>1041</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <v>2018</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="2">
         <v>4</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="I47" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>1020</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>2018</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="2">
         <v>4</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="I48" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>645</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <v>2018</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="2">
         <v>4</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="I49" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>1018</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <v>2018</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="2">
         <v>4</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="I50" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>442</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>2019</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="2">
         <v>4</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>450</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>2019</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="2">
         <v>4</v>
       </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>971</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>2017</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="2">
         <v>4</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>896</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>2017</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="2">
         <v>4</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>879</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="2">
         <v>2019</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="2">
         <v>4</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>497</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="2">
         <v>2017</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="2">
         <v>4</v>
       </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>145</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
         <v>2018</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="2">
         <v>4</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>578</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="2">
         <v>2017</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="2">
         <v>4</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>1208</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="2">
         <v>2019</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="2">
         <v>4</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>418</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="2">
         <v>2018</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="2">
         <v>4</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>247</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="2">
         <v>2019</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="2">
         <v>4</v>
       </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>1210</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="2">
         <v>2019</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H62" s="2">
         <v>4</v>
       </c>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>1321</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="2">
         <v>2017</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="2">
         <v>4</v>
       </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>1379</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="2">
         <v>2019</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="2">
         <v>4</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>1232</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="2">
         <v>2019</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H65" s="2">
         <v>4</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>1335</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="2">
         <v>2018</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="2">
         <v>4</v>
       </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>1509</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="2">
         <v>2019</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="2">
         <v>4</v>
       </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>1490</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="2">
         <v>2019</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="2">
         <v>4</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>1512</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="2">
         <v>2019</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="2">
         <v>4</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>1460</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="2">
         <v>2018</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="2">
         <v>4</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>1428</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="2">
         <v>2017</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="2">
         <v>4</v>
       </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>1393</v>
       </c>
@@ -5377,9 +6104,9 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>1426</v>
       </c>
@@ -5410,9 +6137,9 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>449</v>
       </c>
@@ -5443,9 +6170,9 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O74" s="7"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>972</v>
       </c>
@@ -5476,9 +6203,9 @@
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O75" s="7"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>612</v>
       </c>
@@ -5509,9 +6236,9 @@
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O76" s="7"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>1214</v>
       </c>
@@ -5542,9 +6269,9 @@
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O77" s="7"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>102</v>
       </c>
@@ -5575,9 +6302,9 @@
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O78" s="7"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>1002</v>
       </c>
@@ -5608,9 +6335,9 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O79" s="7"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>457</v>
       </c>
@@ -5641,7 +6368,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
+      <c r="O80" s="7"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
@@ -5674,7 +6401,7 @@
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
+      <c r="O81" s="7"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
@@ -5707,7 +6434,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
+      <c r="O82" s="7"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
@@ -5740,7 +6467,7 @@
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
+      <c r="O83" s="7"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
@@ -5773,7 +6500,7 @@
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
+      <c r="O84" s="7"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
@@ -5806,7 +6533,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
+      <c r="O85" s="7"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
@@ -5839,7 +6566,7 @@
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
+      <c r="O86" s="7"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
@@ -5872,7 +6599,7 @@
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
+      <c r="O87" s="7"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -5905,7 +6632,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
+      <c r="O88" s="7"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
@@ -5938,7 +6665,7 @@
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
+      <c r="O89" s="7"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
@@ -5971,7 +6698,7 @@
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
+      <c r="O90" s="7"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
@@ -6004,7 +6731,7 @@
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
+      <c r="O91" s="7"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
@@ -6037,7 +6764,7 @@
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
+      <c r="O92" s="7"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
@@ -6070,7 +6797,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
+      <c r="O93" s="7"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
@@ -6103,7 +6830,7 @@
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
+      <c r="O94" s="7"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
@@ -6136,7 +6863,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
+      <c r="O95" s="7"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
@@ -6169,7 +6896,7 @@
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
+      <c r="O96" s="7"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
@@ -6202,7 +6929,7 @@
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
+      <c r="O97" s="7"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
@@ -6235,7 +6962,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
+      <c r="O98" s="7"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
@@ -6268,7 +6995,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
+      <c r="O99" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
